--- a/ROGUELIKE/res/bases.xlsx
+++ b/ROGUELIKE/res/bases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherobin/Documents/Projetos/Apenas-Uma-Vez/ROGUELIKE/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979364DD-7CF4-3443-AB32-0DD76595791C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C6269-C615-D84C-B3F2-C9168FD82B7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="2960" windowWidth="27840" windowHeight="16180" xr2:uid="{54E91589-0AF5-D34A-98DD-6CBFB52852F6}"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="27840" windowHeight="16180" xr2:uid="{54E91589-0AF5-D34A-98DD-6CBFB52852F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>#ID</t>
   </si>
@@ -42,61 +42,70 @@
     <t>tipo_base</t>
   </si>
   <si>
-    <t>poder</t>
-  </si>
-  <si>
-    <t>base 1</t>
-  </si>
-  <si>
     <t>base_1.png</t>
   </si>
   <si>
-    <t>base 2</t>
-  </si>
-  <si>
     <t>base_2.png</t>
   </si>
   <si>
-    <t>base 3</t>
-  </si>
-  <si>
     <t>base_3.png</t>
   </si>
   <si>
-    <t>base 4</t>
-  </si>
-  <si>
     <t>base_4.png</t>
   </si>
   <si>
-    <t>base 5</t>
-  </si>
-  <si>
     <t>base_5.png</t>
   </si>
   <si>
-    <t>base 6</t>
-  </si>
-  <si>
     <t>base_6.png</t>
   </si>
   <si>
-    <t>base 7</t>
-  </si>
-  <si>
     <t>base_7.png</t>
   </si>
   <si>
-    <t>base 8</t>
-  </si>
-  <si>
     <t>base_8.png</t>
   </si>
   <si>
-    <t>base 9</t>
-  </si>
-  <si>
     <t>base_9.png</t>
+  </si>
+  <si>
+    <t>bateria</t>
+  </si>
+  <si>
+    <t>energia</t>
+  </si>
+  <si>
+    <t>propulsao</t>
+  </si>
+  <si>
+    <t>Propulsão 1</t>
+  </si>
+  <si>
+    <t>Energia 1</t>
+  </si>
+  <si>
+    <t>Bateria 1</t>
+  </si>
+  <si>
+    <t>Bateria 2</t>
+  </si>
+  <si>
+    <t>Energia 2</t>
+  </si>
+  <si>
+    <t>Propulsão 2</t>
+  </si>
+  <si>
+    <t>Bateria 3</t>
+  </si>
+  <si>
+    <t>Energia 3</t>
+  </si>
+  <si>
+    <t>Propulsão 3</t>
+  </si>
+  <si>
+    <t>vida</t>
   </si>
 </sst>
 </file>
@@ -448,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94C4C08-840A-344D-A132-BDE29A28540A}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,18 +482,27 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -493,167 +511,248 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>400</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>400</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>400</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>500</v>
       </c>
       <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1200</v>
+      </c>
+      <c r="I7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>700</v>
       </c>
       <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1300</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5000</v>
+      </c>
+      <c r="I10">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/ROGUELIKE/res/bases.xlsx
+++ b/ROGUELIKE/res/bases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherobin/Documents/Projetos/Apenas-Uma-Vez/ROGUELIKE/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C6269-C615-D84C-B3F2-C9168FD82B7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F02B797-E3F4-F448-8179-C95144302E6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="960" windowWidth="27840" windowHeight="16180" xr2:uid="{54E91589-0AF5-D34A-98DD-6CBFB52852F6}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,7 +511,7 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>400</v>
       </c>
       <c r="F5">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="I7">
-        <v>250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>700</v>
       </c>
       <c r="F8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>475</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>475</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I10">
-        <v>475</v>
+        <v>4750</v>
       </c>
     </row>
   </sheetData>
